--- a/biology/Biologie cellulaire et moléculaire/Minuteur/Minuteur.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Minuteur/Minuteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un minuteur ou compte-minute est un dispositif, souvent programmable, permettant de mesurer le temps. D'abord mû par un mécanisme d'horlogerie pour remplacer le sablier, il est souvent aujourd'hui complètement électronique. Celui-ci permet de déclencher une alarme (comme un bipeur) quand le temps choisi est écoulé.
 </t>
@@ -511,7 +523,9 @@
           <t>Usage domestique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un minuteur peut être un ustensile de cuisine permettant de contrôler les temps de cuisson. Il est souvent intégré aux fours (traditionnels ou micro-ondes).
 Il ne doit pas être confondu avec une minuterie qui est un dispositif programmable ou non et qui définit le temps de fonctionnement d'un appareil électrique, un système d'éclairage par exemple.
@@ -546,7 +560,9 @@
           <t>Autres usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le minuteur est un élément important de l'équipement de laboratoire de biologie moléculaire, qui permet de contrôler avec précision les temps d'expériences en cours, telles les digestions enzymatiques.
 À la maison, un système muni d'un minuteur peut être utilisé afin de simuler une présence lors d'une absence afin de diminuer les risques de vols.
